--- a/data_excel/413.xlsx
+++ b/data_excel/413.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>樹枝</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,8 +521,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
